--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43079,6 +43079,41 @@
         <v>132000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>147000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43114,6 +43114,41 @@
         <v>147000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>250100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43149,6 +43149,41 @@
         <v>250100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1459600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43184,6 +43184,41 @@
         <v>1459600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>344400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43219,6 +43219,41 @@
         <v>344400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>71000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43254,6 +43254,41 @@
         <v>71000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>202900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43289,6 +43289,41 @@
         <v>202900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>187400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43324,6 +43324,41 @@
         <v>187400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>314200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43359,6 +43359,41 @@
         <v>314200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>158100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43394,6 +43394,41 @@
         <v>158100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>478600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43429,6 +43429,41 @@
         <v>478600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>305300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43464,6 +43464,41 @@
         <v>305300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>43700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43499,6 +43499,76 @@
         <v>43700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>488000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43569,6 +43569,76 @@
         <v>488000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>202800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>138100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43639,6 +43639,41 @@
         <v>138100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43674,6 +43674,41 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>145800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43709,6 +43709,41 @@
         <v>145800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43744,6 +43744,41 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1101600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43779,6 +43779,76 @@
         <v>1101600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>697800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>165500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43849,6 +43849,41 @@
         <v>165500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>765000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43884,6 +43884,41 @@
         <v>765000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1439900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1993"/>
+  <dimension ref="A1:I1994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70239,6 +70239,41 @@
         <v>1439900</v>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>526000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1994"/>
+  <dimension ref="A1:I1995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70274,6 +70274,41 @@
         <v>526000</v>
       </c>
     </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1995" t="n">
+        <v>185700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70309,6 +70309,41 @@
         <v>185700</v>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>627000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70344,6 +70344,41 @@
         <v>627000</v>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>339700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1997"/>
+  <dimension ref="A1:I1998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70379,6 +70379,41 @@
         <v>339700</v>
       </c>
     </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>309000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1998"/>
+  <dimension ref="A1:I1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70414,6 +70414,41 @@
         <v>309000</v>
       </c>
     </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>210900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1999"/>
+  <dimension ref="A1:I2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70449,6 +70449,41 @@
         <v>210900</v>
       </c>
     </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2000"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70484,6 +70484,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>273200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2001"/>
+  <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70519,6 +70519,41 @@
         <v>273200</v>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>240000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2002"/>
+  <dimension ref="A1:I2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70554,6 +70554,41 @@
         <v>240000</v>
       </c>
     </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>641900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2003"/>
+  <dimension ref="A1:I2004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70589,6 +70589,41 @@
         <v>641900</v>
       </c>
     </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>350000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2004"/>
+  <dimension ref="A1:I2005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70624,6 +70624,41 @@
         <v>350000</v>
       </c>
     </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2005" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2005" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2005" t="n">
+        <v>220000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2005"/>
+  <dimension ref="A1:I2006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70659,6 +70659,41 @@
         <v>220000</v>
       </c>
     </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2006" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2006" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2006" t="n">
+        <v>786900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2006"/>
+  <dimension ref="A1:I2007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70694,6 +70694,41 @@
         <v>786900</v>
       </c>
     </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2007" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2007" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2007" t="n">
+        <v>271200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2007"/>
+  <dimension ref="A1:I2008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70729,6 +70729,41 @@
         <v>271200</v>
       </c>
     </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2008" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2008" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2008" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2008" t="n">
+        <v>155400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2008"/>
+  <dimension ref="A1:I2009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70764,6 +70764,41 @@
         <v>155400</v>
       </c>
     </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2009" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2009" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2009" t="n">
+        <v>540100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2009"/>
+  <dimension ref="A1:I2010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70799,6 +70799,41 @@
         <v>540100</v>
       </c>
     </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>7272500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2010"/>
+  <dimension ref="A1:I2011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70834,6 +70834,41 @@
         <v>7272500</v>
       </c>
     </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2011" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2011" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2011" t="n">
+        <v>1689900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2011"/>
+  <dimension ref="A1:I2012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70869,6 +70869,41 @@
         <v>1689900</v>
       </c>
     </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2012" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2012" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2012" t="n">
+        <v>1111800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2012"/>
+  <dimension ref="A1:I2013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70904,6 +70904,41 @@
         <v>1111800</v>
       </c>
     </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2013" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2013" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2013" t="n">
+        <v>1361700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2013"/>
+  <dimension ref="A1:I2014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70939,6 +70939,41 @@
         <v>1361700</v>
       </c>
     </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2014" t="n">
+        <v>654300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2014"/>
+  <dimension ref="A1:I2015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70974,6 +70974,41 @@
         <v>654300</v>
       </c>
     </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2015" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2015" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2015" t="n">
+        <v>1751500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2015"/>
+  <dimension ref="A1:I2016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71009,6 +71009,41 @@
         <v>1751500</v>
       </c>
     </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>392600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2016"/>
+  <dimension ref="A1:I2017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71044,6 +71044,41 @@
         <v>392600</v>
       </c>
     </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2017" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2017" t="n">
+        <v>612500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2017"/>
+  <dimension ref="A1:I2018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71079,6 +71079,41 @@
         <v>612500</v>
       </c>
     </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2018" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2018" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2018" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2018" t="n">
+        <v>817600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2018"/>
+  <dimension ref="A1:I2020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71114,6 +71114,76 @@
         <v>817600</v>
       </c>
     </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2019" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2019" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2019" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2019" t="n">
+        <v>662300</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2020" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2020" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2020" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2020" t="n">
+        <v>254400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2020"/>
+  <dimension ref="A1:I2021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71184,6 +71184,41 @@
         <v>254400</v>
       </c>
     </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2021" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2021" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2021" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2021" t="n">
+        <v>500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2021"/>
+  <dimension ref="A1:I2024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71219,6 +71219,111 @@
         <v>500000</v>
       </c>
     </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2022" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2022" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2022" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2022" t="n">
+        <v>376600</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2023" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2023" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2023" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2023" t="n">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2024" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2024" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2024" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2024" t="n">
+        <v>703300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2024"/>
+  <dimension ref="A1:I2025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71324,6 +71324,41 @@
         <v>703300</v>
       </c>
     </row>
+    <row r="2025">
+      <c r="A2025" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2025" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2025" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2025" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2025" t="n">
+        <v>470000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2025"/>
+  <dimension ref="A1:I2026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71359,6 +71359,41 @@
         <v>470000</v>
       </c>
     </row>
+    <row r="2026">
+      <c r="A2026" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2026" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2026" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2026" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2026" t="n">
+        <v>598600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0171.xlsx
+++ b/data/0171.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2026"/>
+  <dimension ref="A1:I2029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71394,6 +71394,111 @@
         <v>598600</v>
       </c>
     </row>
+    <row r="2027">
+      <c r="A2027" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2027" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2027" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2027" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2027" t="n">
+        <v>613900</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2028" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2028" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2028" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2028" t="n">
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>PLABS</t>
+        </is>
+      </c>
+      <c r="E2029" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2029" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2029" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2029" t="n">
+        <v>65400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
